--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_0_28.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_0_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1588207.268825107</v>
+        <v>1649988.267108688</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17254715.44216109</v>
+        <v>16597726.15245798</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484444</v>
+        <v>492028.934248445</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6349699.983802475</v>
+        <v>6349699.983802474</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>368.9686833007813</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,19 +713,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>146.0193143068389</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
         <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>81.28459954611465</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
@@ -832,7 +832,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
@@ -883,7 +883,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>99.47166491774477</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>418.7069096796287</v>
       </c>
       <c r="C5" t="n">
         <v>33.76104808841092</v>
@@ -902,19 +902,19 @@
         <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>424.2958575201043</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>216.5039839193838</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>140.8527288812233</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,10 +1105,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1136,19 +1136,19 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -1187,16 +1187,16 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>69.81654101781173</v>
       </c>
       <c r="X8" t="n">
-        <v>261.152407151756</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
@@ -1300,13 +1300,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>67.4289457920829</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>197.7483708847439</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -1385,10 +1385,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>18.227720276594</v>
+        <v>18.64034175572537</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
@@ -1543,10 +1543,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>29.10461178739004</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>94.50264048967848</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1661,7 +1661,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>71.84692347866475</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1673,7 +1673,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>219.4201062858533</v>
       </c>
     </row>
     <row r="15">
@@ -1774,13 +1774,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>31.28831241118189</v>
       </c>
       <c r="G16" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>27.07950026194612</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -1816,10 +1816,10 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1850,7 +1850,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>161.8384861377975</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
@@ -1859,10 +1859,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>18.227720276594</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2093,7 +2093,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>212.1880754063489</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
         <v>286.2388530112159</v>
@@ -2129,16 +2129,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>308.8462026865823</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
         <v>164.2192128704925</v>
@@ -2254,10 +2254,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225728</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2302,7 +2302,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>237.8056840909994</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2488,13 +2488,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
-        <v>52.51170991984834</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
@@ -2713,7 +2713,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
         <v>164.2192128704925</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,13 +2761,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>219.1192377452354</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
@@ -2962,10 +2962,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>148.7223419617685</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225785</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3007,7 +3007,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -3205,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3253,7 +3253,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>134.2252585165371</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -3427,7 +3427,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
@@ -3436,13 +3436,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>140.2850596529189</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3478,10 +3478,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>61.23284287475789</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
@@ -3667,10 +3667,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
         <v>163.9353622244306</v>
@@ -3715,10 +3715,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>63.51633119327914</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>65.07405371603591</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800085</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
@@ -3797,7 +3797,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655108</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
@@ -3913,10 +3913,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>16.05512456153246</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,10 +3946,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225715</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
         <v>275.6486707394257</v>
@@ -4150,10 +4150,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,10 +4183,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225746</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
         <v>275.6486707394257</v>
@@ -4201,7 +4201,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>102.6974459740394</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1248.044874488545</v>
+        <v>1200.821019354834</v>
       </c>
       <c r="C2" t="n">
-        <v>1213.942805712373</v>
+        <v>828.125379657075</v>
       </c>
       <c r="D2" t="n">
-        <v>1182.073424927221</v>
+        <v>392.2155948315195</v>
       </c>
       <c r="E2" t="n">
-        <v>1152.33908412592</v>
+        <v>362.4812540302187</v>
       </c>
       <c r="F2" t="n">
-        <v>724.4716545351282</v>
+        <v>338.6542284798305</v>
       </c>
       <c r="G2" t="n">
-        <v>323.0738231583921</v>
+        <v>338.6542284798305</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.5240739230468</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.1072845501868</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.1072845501868</v>
       </c>
       <c r="K2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.1072845501868</v>
       </c>
       <c r="L2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.1072845501868</v>
       </c>
       <c r="M2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.1072845501868</v>
       </c>
       <c r="N2" t="n">
-        <v>267.8706684926505</v>
+        <v>524.3060841805653</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1132.008730489127</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1739.711376797689</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2286.210162756283</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.36422750934</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.36422750934</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.36422750934</v>
       </c>
       <c r="U2" t="n">
-        <v>1437.961127397434</v>
+        <v>2455.36422750934</v>
       </c>
       <c r="V2" t="n">
-        <v>1290.466870521839</v>
+        <v>2455.36422750934</v>
       </c>
       <c r="W2" t="n">
-        <v>1289.651819973277</v>
+        <v>2050.508772920373</v>
       </c>
       <c r="X2" t="n">
-        <v>1274.549760592992</v>
+        <v>2035.406713540088</v>
       </c>
       <c r="Y2" t="n">
-        <v>1270.304040933049</v>
+        <v>1627.120589839742</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>555.2790295414796</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>448.8225683781219</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>353.7322795246752</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>259.6118648516289</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>176.2280264677905</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>90.84293673397434</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.1072845501868</v>
       </c>
       <c r="I3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.1072845501868</v>
       </c>
       <c r="J3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.1072845501868</v>
       </c>
       <c r="K3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.1072845501868</v>
       </c>
       <c r="L3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.1072845501868</v>
       </c>
       <c r="M3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.1072845501868</v>
       </c>
       <c r="N3" t="n">
-        <v>319.8519551513677</v>
+        <v>49.1072845501868</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962709</v>
+        <v>446.7326829940187</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1595.174267934656</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1712.347046028996</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1648.891608477379</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1518.71296480798</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1342.376417807949</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1143.258899869948</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>957.936145603142</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>803.068709842022</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>676.5829306212428</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>851.7801684713901</v>
+        <v>899.603321627118</v>
       </c>
       <c r="C4" t="n">
-        <v>851.7801684713901</v>
+        <v>727.041610110343</v>
       </c>
       <c r="D4" t="n">
-        <v>685.9021756729128</v>
+        <v>561.1636173118657</v>
       </c>
       <c r="E4" t="n">
-        <v>516.14417192365</v>
+        <v>391.405613562603</v>
       </c>
       <c r="F4" t="n">
-        <v>339.4371178854062</v>
+        <v>214.6985595243592</v>
       </c>
       <c r="G4" t="n">
-        <v>173.8458429112338</v>
+        <v>49.1072845501868</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.1072845501868</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.1072845501868</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>135.6869697148767</v>
       </c>
       <c r="K4" t="n">
-        <v>308.7021231727439</v>
+        <v>410.4454242860123</v>
       </c>
       <c r="L4" t="n">
-        <v>437.4083829648294</v>
+        <v>786.4454139746597</v>
       </c>
       <c r="M4" t="n">
-        <v>857.4612819097326</v>
+        <v>1245.929281155573</v>
       </c>
       <c r="N4" t="n">
-        <v>1277.514180854636</v>
+        <v>1688.188084313217</v>
       </c>
       <c r="O4" t="n">
-        <v>1697.183430080417</v>
+        <v>2107.857333538998</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.36422750934</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.36422750934</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>2433.946406214712</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>2274.705037512709</v>
       </c>
       <c r="T4" t="n">
-        <v>1451.303983658873</v>
+        <v>2274.705037512709</v>
       </c>
       <c r="U4" t="n">
-        <v>1451.303983658873</v>
+        <v>1996.272036765814</v>
       </c>
       <c r="V4" t="n">
-        <v>1451.303983658873</v>
+        <v>1709.316528636244</v>
       </c>
       <c r="W4" t="n">
-        <v>1179.277579245164</v>
+        <v>1437.290124222536</v>
       </c>
       <c r="X4" t="n">
-        <v>933.8858245785766</v>
+        <v>1191.898369555948</v>
       </c>
       <c r="Y4" t="n">
-        <v>933.8858245785766</v>
+        <v>1091.421940346105</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>771.4315001967747</v>
+        <v>172.9340324416416</v>
       </c>
       <c r="C5" t="n">
-        <v>737.3294314206021</v>
+        <v>138.8319636654689</v>
       </c>
       <c r="D5" t="n">
-        <v>705.4600506354507</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E5" t="n">
-        <v>276.878376372719</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F5" t="n">
-        <v>253.0513508223308</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G5" t="n">
-        <v>34.36045797446834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M5" t="n">
-        <v>267.8706684926505</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N5" t="n">
-        <v>687.9235674375537</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1477.116202953456</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U5" t="n">
-        <v>1217.893900270473</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V5" t="n">
-        <v>1217.893900270473</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W5" t="n">
-        <v>1217.07884972191</v>
+        <v>1423.298891966343</v>
       </c>
       <c r="X5" t="n">
-        <v>797.936386301221</v>
+        <v>1004.156428545654</v>
       </c>
       <c r="Y5" t="n">
-        <v>793.6906666412784</v>
+        <v>595.8703048453069</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N6" t="n">
-        <v>319.8519551513677</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="O6" t="n">
-        <v>739.9048540962709</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>665.39009218466</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C7" t="n">
-        <v>492.828380667885</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D7" t="n">
-        <v>350.5528969494776</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E7" t="n">
-        <v>350.5528969494776</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F7" t="n">
-        <v>173.8458429112338</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>173.8458429112338</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>308.7021231727439</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>509.954387939391</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>930.0072868842942</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>930.0072868842942</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1349.676536110076</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U7" t="n">
-        <v>1697.183430080417</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V7" t="n">
-        <v>1410.227921950848</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W7" t="n">
-        <v>1138.201517537139</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X7" t="n">
-        <v>892.8097628705518</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y7" t="n">
-        <v>665.39009218466</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>156.7215407443858</v>
+        <v>1674.602188492498</v>
       </c>
       <c r="C8" t="n">
-        <v>122.6194719682131</v>
+        <v>1640.500119716325</v>
       </c>
       <c r="D8" t="n">
-        <v>90.7500911830617</v>
+        <v>1204.590334890769</v>
       </c>
       <c r="E8" t="n">
-        <v>61.01575038176094</v>
+        <v>770.8155900490646</v>
       </c>
       <c r="F8" t="n">
-        <v>37.18872483137273</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G8" t="n">
-        <v>37.18872483137273</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>37.18872483137273</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>36.77193545851274</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>36.77193545851274</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>36.77193545851274</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L8" t="n">
-        <v>36.77193545851274</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>36.77193545851274</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="N8" t="n">
-        <v>304.2846042752947</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="O8" t="n">
-        <v>759.3373055743897</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="P8" t="n">
-        <v>1214.390006873485</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1669.44270817258</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1838.596772925637</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1838.596772925637</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1618.529545798675</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U8" t="n">
-        <v>1618.529545798675</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V8" t="n">
-        <v>1255.912595732502</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="W8" t="n">
-        <v>851.0571411435351</v>
+        <v>2120.249538017633</v>
       </c>
       <c r="X8" t="n">
-        <v>587.2668308892361</v>
+        <v>2105.147478637348</v>
       </c>
       <c r="Y8" t="n">
-        <v>178.9807071888895</v>
+        <v>1696.861354937001</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>542.9436804498055</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>436.4872192864478</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>341.396930433001</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>247.2765157599547</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>163.8926773761164</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>78.50758764230027</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>36.77193545851274</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>36.77193545851274</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>36.77193545851274</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="K9" t="n">
-        <v>36.77193545851274</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="L9" t="n">
-        <v>36.77193545851274</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="M9" t="n">
-        <v>36.77193545851274</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="N9" t="n">
-        <v>217.6808149456965</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="O9" t="n">
-        <v>672.7335162447916</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="P9" t="n">
-        <v>1127.786217543887</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1582.838918842982</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1700.011696937322</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1636.556259385705</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1506.377615716306</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1330.041068716275</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1130.923550778274</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>945.6007965114679</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>790.7333607503479</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>664.2475815295686</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>461.0678812315774</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>461.0678812315774</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>295.1898884331001</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>125.4318846838374</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>125.4318846838374</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>125.4318846838374</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>125.4318846838374</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>36.77193545851274</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>123.3516206232026</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>123.3516206232026</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>460.9690517075368</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>460.9690517075368</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>903.2278548651814</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1322.897104090963</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1670.403998061304</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1838.596772925637</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1817.178951631009</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1657.937582929005</v>
+        <v>2601.950780176799</v>
       </c>
       <c r="T10" t="n">
-        <v>1412.05813650746</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="U10" t="n">
-        <v>1133.625135760566</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>933.8793065840566</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>933.8793065840566</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>688.4875519174691</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>461.0678812315774</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5018,22 +5018,22 @@
         <v>2252.656868168567</v>
       </c>
       <c r="C11" t="n">
-        <v>1814.514395351991</v>
+        <v>1814.51439535199</v>
       </c>
       <c r="D11" t="n">
-        <v>1378.604610526434</v>
+        <v>1378.604610526435</v>
       </c>
       <c r="E11" t="n">
-        <v>944.8298656847296</v>
+        <v>944.8298656847298</v>
       </c>
       <c r="F11" t="n">
-        <v>516.9624360939374</v>
+        <v>516.9624360939375</v>
       </c>
       <c r="G11" t="n">
-        <v>115.5646047172013</v>
+        <v>115.5646047172014</v>
       </c>
       <c r="H11" t="n">
-        <v>97.15276605397517</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I11" t="n">
         <v>96.73597668111518</v>
@@ -5042,25 +5042,25 @@
         <v>96.73597668111518</v>
       </c>
       <c r="K11" t="n">
-        <v>96.73597668111518</v>
+        <v>199.0316880464641</v>
       </c>
       <c r="L11" t="n">
-        <v>96.73597668111518</v>
+        <v>199.0316880464641</v>
       </c>
       <c r="M11" t="n">
-        <v>1253.783811891666</v>
+        <v>1356.079523257015</v>
       </c>
       <c r="N11" t="n">
-        <v>2379.514795328113</v>
+        <v>2481.810506693462</v>
       </c>
       <c r="O11" t="n">
-        <v>3359.694461898419</v>
+        <v>3461.990173263768</v>
       </c>
       <c r="P11" t="n">
-        <v>4188.004336731816</v>
+        <v>4290.300048097164</v>
       </c>
       <c r="Q11" t="n">
-        <v>4734.50312269041</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="R11" t="n">
         <v>4836.798834055759</v>
@@ -5078,13 +5078,13 @@
         <v>3911.240480363477</v>
       </c>
       <c r="W11" t="n">
-        <v>3506.385025774511</v>
+        <v>3506.38502577451</v>
       </c>
       <c r="X11" t="n">
-        <v>3087.242562353822</v>
+        <v>3087.242562353821</v>
       </c>
       <c r="Y11" t="n">
-        <v>2678.956438653475</v>
+        <v>2678.956438653474</v>
       </c>
     </row>
     <row r="12">
@@ -5115,22 +5115,22 @@
         <v>96.73597668111518</v>
       </c>
       <c r="I12" t="n">
-        <v>96.73597668111518</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J12" t="n">
-        <v>96.73597668111518</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="K12" t="n">
-        <v>96.73597668111518</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="L12" t="n">
-        <v>96.73597668111518</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="M12" t="n">
-        <v>96.73597668111518</v>
+        <v>282.3408549543107</v>
       </c>
       <c r="N12" t="n">
-        <v>96.73597668111518</v>
+        <v>282.3408549543107</v>
       </c>
       <c r="O12" t="n">
         <v>282.3408549543107</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>870.0139701848935</v>
+        <v>976.6306115230871</v>
       </c>
       <c r="C13" t="n">
-        <v>697.4522586681185</v>
+        <v>804.0689000063119</v>
       </c>
       <c r="D13" t="n">
-        <v>697.4522586681185</v>
+        <v>638.1909072078346</v>
       </c>
       <c r="E13" t="n">
-        <v>527.6942549188557</v>
+        <v>468.4329034585718</v>
       </c>
       <c r="F13" t="n">
-        <v>350.9872008806119</v>
+        <v>291.725849420328</v>
       </c>
       <c r="G13" t="n">
-        <v>185.3959259064399</v>
+        <v>126.1345744461557</v>
       </c>
       <c r="H13" t="n">
-        <v>185.3959259064399</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I13" t="n">
         <v>96.73597668111518</v>
@@ -5221,28 +5221,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R13" t="n">
-        <v>2713.395586583915</v>
+        <v>2691.977765289287</v>
       </c>
       <c r="S13" t="n">
-        <v>2617.938373968077</v>
+        <v>2532.736396587283</v>
       </c>
       <c r="T13" t="n">
-        <v>2372.058927546533</v>
+        <v>2286.856950165739</v>
       </c>
       <c r="U13" t="n">
-        <v>2093.625926799638</v>
+        <v>2008.423949418844</v>
       </c>
       <c r="V13" t="n">
-        <v>1806.670418670068</v>
+        <v>1721.468441289275</v>
       </c>
       <c r="W13" t="n">
-        <v>1534.64401425636</v>
+        <v>1449.442036875566</v>
       </c>
       <c r="X13" t="n">
-        <v>1289.252259589772</v>
+        <v>1204.050282208979</v>
       </c>
       <c r="Y13" t="n">
-        <v>1061.832588903881</v>
+        <v>976.6306115230871</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2522.958394689264</v>
       </c>
       <c r="C14" t="n">
-        <v>2084.815921872687</v>
+        <v>2084.815921872688</v>
       </c>
       <c r="D14" t="n">
         <v>1648.906137047132</v>
@@ -5297,7 +5297,7 @@
         <v>4188.004336731816</v>
       </c>
       <c r="Q14" t="n">
-        <v>4667.644769302702</v>
+        <v>4734.50312269041</v>
       </c>
       <c r="R14" t="n">
         <v>4836.798834055759</v>
@@ -5309,16 +5309,16 @@
         <v>4616.731606928797</v>
       </c>
       <c r="U14" t="n">
-        <v>4544.158956950348</v>
+        <v>4357.509304245814</v>
       </c>
       <c r="V14" t="n">
-        <v>4181.542006884174</v>
+        <v>3994.89235417964</v>
       </c>
       <c r="W14" t="n">
-        <v>3776.686552295208</v>
+        <v>3590.036899590674</v>
       </c>
       <c r="X14" t="n">
-        <v>3357.544088874518</v>
+        <v>3170.894436169985</v>
       </c>
       <c r="Y14" t="n">
         <v>2949.257965174172</v>
@@ -5352,22 +5352,22 @@
         <v>96.73597668111518</v>
       </c>
       <c r="I15" t="n">
-        <v>96.73597668111518</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J15" t="n">
-        <v>96.73597668111518</v>
+        <v>282.3408549543107</v>
       </c>
       <c r="K15" t="n">
-        <v>96.73597668111518</v>
+        <v>282.3408549543107</v>
       </c>
       <c r="L15" t="n">
-        <v>96.73597668111518</v>
+        <v>282.3408549543107</v>
       </c>
       <c r="M15" t="n">
-        <v>96.73597668111518</v>
+        <v>282.3408549543107</v>
       </c>
       <c r="N15" t="n">
-        <v>96.73597668111518</v>
+        <v>282.3408549543107</v>
       </c>
       <c r="O15" t="n">
         <v>282.3408549543107</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1063.244993550994</v>
+        <v>1030.691439225644</v>
       </c>
       <c r="C16" t="n">
-        <v>890.6832820342183</v>
+        <v>858.1297277088688</v>
       </c>
       <c r="D16" t="n">
-        <v>724.8052892357412</v>
+        <v>692.2517349103916</v>
       </c>
       <c r="E16" t="n">
-        <v>555.0472854864784</v>
+        <v>522.4937311611288</v>
       </c>
       <c r="F16" t="n">
-        <v>378.3402314482346</v>
+        <v>490.8893751902377</v>
       </c>
       <c r="G16" t="n">
-        <v>212.7489564740622</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="H16" t="n">
         <v>185.3959259064399</v>
@@ -5458,28 +5458,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R16" t="n">
-        <v>2691.977765289286</v>
+        <v>2691.977765289287</v>
       </c>
       <c r="S16" t="n">
         <v>2532.736396587283</v>
       </c>
       <c r="T16" t="n">
-        <v>2286.856950165738</v>
+        <v>2532.736396587283</v>
       </c>
       <c r="U16" t="n">
-        <v>2286.856950165738</v>
+        <v>2254.303395840388</v>
       </c>
       <c r="V16" t="n">
-        <v>1999.901442036168</v>
+        <v>1967.347887710819</v>
       </c>
       <c r="W16" t="n">
-        <v>1727.87503762246</v>
+        <v>1695.32148329711</v>
       </c>
       <c r="X16" t="n">
-        <v>1482.483282955872</v>
+        <v>1449.929728630523</v>
       </c>
       <c r="Y16" t="n">
-        <v>1255.063612269981</v>
+        <v>1222.510057944631</v>
       </c>
     </row>
     <row r="17">
@@ -5492,22 +5492,22 @@
         <v>2252.656868168567</v>
       </c>
       <c r="C17" t="n">
-        <v>1814.51439535199</v>
+        <v>1814.514395351991</v>
       </c>
       <c r="D17" t="n">
-        <v>1378.604610526434</v>
+        <v>1378.604610526435</v>
       </c>
       <c r="E17" t="n">
-        <v>944.8298656847297</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F17" t="n">
-        <v>516.9624360939374</v>
+        <v>787.2639626146351</v>
       </c>
       <c r="G17" t="n">
-        <v>115.5646047172014</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H17" t="n">
-        <v>97.15276605397517</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I17" t="n">
         <v>96.73597668111518</v>
@@ -5522,19 +5522,19 @@
         <v>96.73597668111518</v>
       </c>
       <c r="M17" t="n">
-        <v>1253.783811891666</v>
+        <v>1186.925458503958</v>
       </c>
       <c r="N17" t="n">
-        <v>2379.514795328113</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="O17" t="n">
-        <v>3359.694461898419</v>
+        <v>3292.836108510712</v>
       </c>
       <c r="P17" t="n">
-        <v>4188.004336731816</v>
+        <v>4121.145983344108</v>
       </c>
       <c r="Q17" t="n">
-        <v>4734.50312269041</v>
+        <v>4667.644769302702</v>
       </c>
       <c r="R17" t="n">
         <v>4836.798834055759</v>
@@ -5549,16 +5549,16 @@
         <v>4273.857430429651</v>
       </c>
       <c r="V17" t="n">
-        <v>3911.240480363477</v>
+        <v>3911.240480363478</v>
       </c>
       <c r="W17" t="n">
         <v>3506.385025774511</v>
       </c>
       <c r="X17" t="n">
-        <v>3087.242562353821</v>
+        <v>3087.242562353822</v>
       </c>
       <c r="Y17" t="n">
-        <v>2678.956438653474</v>
+        <v>2678.956438653475</v>
       </c>
     </row>
     <row r="18">
@@ -5589,22 +5589,22 @@
         <v>96.73597668111518</v>
       </c>
       <c r="I18" t="n">
-        <v>96.73597668111518</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J18" t="n">
-        <v>96.73597668111518</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="K18" t="n">
-        <v>96.73597668111518</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="L18" t="n">
-        <v>96.73597668111518</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="M18" t="n">
-        <v>96.73597668111518</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="N18" t="n">
-        <v>96.73597668111518</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="O18" t="n">
         <v>282.3408549543107</v>
@@ -5647,13 +5647,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>947.2320137580465</v>
+        <v>947.2320137580463</v>
       </c>
       <c r="C19" t="n">
-        <v>774.6703022412714</v>
+        <v>774.6703022412713</v>
       </c>
       <c r="D19" t="n">
-        <v>608.7923094427941</v>
+        <v>608.792309442794</v>
       </c>
       <c r="E19" t="n">
         <v>439.0343056935313</v>
@@ -5704,19 +5704,19 @@
         <v>2449.276971119685</v>
       </c>
       <c r="U19" t="n">
-        <v>2170.843970372791</v>
+        <v>2170.84397037279</v>
       </c>
       <c r="V19" t="n">
         <v>1883.888462243221</v>
       </c>
       <c r="W19" t="n">
-        <v>1611.862057829513</v>
+        <v>1611.862057829512</v>
       </c>
       <c r="X19" t="n">
-        <v>1366.470303162926</v>
+        <v>1366.470303162925</v>
       </c>
       <c r="Y19" t="n">
-        <v>1139.050632477034</v>
+        <v>1139.050632477033</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2336.308741984731</v>
+        <v>2523.375184062124</v>
       </c>
       <c r="C20" t="n">
-        <v>1898.166269168154</v>
+        <v>2085.232711245547</v>
       </c>
       <c r="D20" t="n">
-        <v>1462.256484342598</v>
+        <v>1649.322926419992</v>
       </c>
       <c r="E20" t="n">
-        <v>1028.481739500894</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F20" t="n">
-        <v>600.6143099101013</v>
+        <v>787.6807519874947</v>
       </c>
       <c r="G20" t="n">
         <v>386.2829206107589</v>
@@ -5759,43 +5759,43 @@
         <v>96.73597668111518</v>
       </c>
       <c r="M20" t="n">
-        <v>1186.925458503958</v>
+        <v>1253.783811891666</v>
       </c>
       <c r="N20" t="n">
-        <v>2312.656441940405</v>
+        <v>2379.514795328113</v>
       </c>
       <c r="O20" t="n">
-        <v>3292.836108510712</v>
+        <v>3359.694461898419</v>
       </c>
       <c r="P20" t="n">
-        <v>4121.145983344108</v>
+        <v>4188.004336731816</v>
       </c>
       <c r="Q20" t="n">
-        <v>4667.644769302702</v>
+        <v>4734.50312269041</v>
       </c>
       <c r="R20" t="n">
         <v>4836.798834055759</v>
       </c>
       <c r="S20" t="n">
-        <v>4836.798834055759</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T20" t="n">
-        <v>4616.731606928798</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="U20" t="n">
-        <v>4357.509304245815</v>
+        <v>4493.924657556612</v>
       </c>
       <c r="V20" t="n">
-        <v>3994.892354179641</v>
+        <v>4181.958796257034</v>
       </c>
       <c r="W20" t="n">
-        <v>3590.036899590674</v>
+        <v>3777.103341668068</v>
       </c>
       <c r="X20" t="n">
-        <v>3170.894436169985</v>
+        <v>3357.960878247378</v>
       </c>
       <c r="Y20" t="n">
-        <v>2762.608312469638</v>
+        <v>2949.674754547032</v>
       </c>
     </row>
     <row r="21">
@@ -5826,25 +5826,25 @@
         <v>96.73597668111518</v>
       </c>
       <c r="I21" t="n">
-        <v>96.73597668111518</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J21" t="n">
-        <v>96.73597668111518</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K21" t="n">
-        <v>96.73597668111518</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L21" t="n">
-        <v>96.73597668111518</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M21" t="n">
-        <v>96.73597668111518</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N21" t="n">
-        <v>96.73597668111518</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3408549543107</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P21" t="n">
         <v>1102.064021433509</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1003.232425776221</v>
+        <v>947.232013758046</v>
       </c>
       <c r="C22" t="n">
-        <v>1003.232425776221</v>
+        <v>774.670302241271</v>
       </c>
       <c r="D22" t="n">
-        <v>837.3544329777442</v>
+        <v>608.7923094427941</v>
       </c>
       <c r="E22" t="n">
-        <v>667.5964292284815</v>
+        <v>439.0343056935313</v>
       </c>
       <c r="F22" t="n">
-        <v>490.8893751902377</v>
+        <v>262.3272516552875</v>
       </c>
       <c r="G22" t="n">
-        <v>325.2981002160653</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="H22" t="n">
-        <v>185.3959259064399</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I22" t="n">
         <v>96.73597668111518</v>
@@ -5935,25 +5935,25 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S22" t="n">
-        <v>2554.154217881911</v>
+        <v>2695.15641754123</v>
       </c>
       <c r="T22" t="n">
-        <v>2308.274771460366</v>
+        <v>2449.276971119685</v>
       </c>
       <c r="U22" t="n">
-        <v>2029.841770713471</v>
+        <v>2170.84397037279</v>
       </c>
       <c r="V22" t="n">
-        <v>1742.886262583902</v>
+        <v>1883.888462243221</v>
       </c>
       <c r="W22" t="n">
-        <v>1470.859858170193</v>
+        <v>1611.862057829512</v>
       </c>
       <c r="X22" t="n">
-        <v>1230.652096462113</v>
+        <v>1366.470303162925</v>
       </c>
       <c r="Y22" t="n">
-        <v>1003.232425776221</v>
+        <v>1139.050632477033</v>
       </c>
     </row>
     <row r="23">
@@ -6063,25 +6063,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
         <v>1107.588885023173</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1015.727725908489</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>843.1660143917137</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>677.2880215932364</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>507.5300178439736</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>330.8229638057298</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6169,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176948</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2239.339682523233</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1952.384174393663</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1680.357769979955</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1434.966015313368</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1207.546344627476</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>868.8551150562604</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C28" t="n">
-        <v>868.8551150562604</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D28" t="n">
-        <v>702.9771222577831</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>533.2191185085204</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>356.5120644702766</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6409,25 +6409,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2092.467071671005</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1805.511563541435</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1533.485159127727</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1288.093404461139</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1060.673733775247</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6467,22 +6467,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L29" t="n">
-        <v>1021.77365348828</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M29" t="n">
-        <v>2178.821488698831</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N29" t="n">
-        <v>3304.552472135278</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>4284.732138705584</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6537,25 +6537,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
         <v>1107.588885023173</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1077.292364523334</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>904.7306530065591</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>738.8526602080818</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>569.0946564588191</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>392.3876024205753</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6625,46 +6625,46 @@
         <v>463.598980006605</v>
       </c>
       <c r="L31" t="n">
-        <v>881.8088617745669</v>
+        <v>881.808861774566</v>
       </c>
       <c r="M31" t="n">
-        <v>1341.29272895548</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N31" t="n">
         <v>1783.551532113124</v>
       </c>
       <c r="O31" t="n">
-        <v>2203.220781338906</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P31" t="n">
-        <v>2550.727675309248</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q31" t="n">
-        <v>2718.92045017358</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878952</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176948</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2292.381813755404</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2013.948813008509</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>2013.948813008509</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1741.922408594801</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1496.530653928213</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1269.110983242321</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6698,10 +6698,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>306.120802776629</v>
       </c>
       <c r="K32" t="n">
-        <v>102.2608402707796</v>
+        <v>306.120802776629</v>
       </c>
       <c r="L32" t="n">
         <v>306.120802776629</v>
@@ -6774,25 +6774,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
         <v>1107.588885023173</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1041.416826573035</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C34" t="n">
-        <v>868.8551150562604</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D34" t="n">
-        <v>702.9771222577831</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>533.2191185085204</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>356.5120644702766</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6880,28 +6880,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2697.502628878951</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2451.623182457406</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2173.190181710511</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1886.234673580942</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1614.208269167234</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1368.816514500646</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1233.235445292023</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6941,16 +6941,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L35" t="n">
-        <v>1177.320806523639</v>
+        <v>1021.77365348828</v>
       </c>
       <c r="M35" t="n">
-        <v>2334.36864173419</v>
+        <v>2178.821488698831</v>
       </c>
       <c r="N35" t="n">
-        <v>3460.099625170637</v>
+        <v>3304.552472135278</v>
       </c>
       <c r="O35" t="n">
-        <v>4440.279291740943</v>
+        <v>4284.732138705584</v>
       </c>
       <c r="P35" t="n">
         <v>5113.04201353898</v>
@@ -6974,7 +6974,7 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
@@ -7011,25 +7011,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
         <v>1107.588885023173</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1068.769857140658</v>
+        <v>1015.441008084184</v>
       </c>
       <c r="C37" t="n">
-        <v>896.2081456238827</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="D37" t="n">
-        <v>730.3301528254054</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E37" t="n">
-        <v>560.5721490761428</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F37" t="n">
-        <v>383.8650950378989</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G37" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H37" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7123,22 +7123,22 @@
         <v>2538.261260176947</v>
       </c>
       <c r="T37" t="n">
-        <v>2292.381813755402</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U37" t="n">
-        <v>2292.381813755402</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V37" t="n">
-        <v>2005.426305625833</v>
+        <v>1952.097456569359</v>
       </c>
       <c r="W37" t="n">
-        <v>1733.399901212124</v>
+        <v>1680.07105215565</v>
       </c>
       <c r="X37" t="n">
-        <v>1488.008146545537</v>
+        <v>1434.679297489062</v>
       </c>
       <c r="Y37" t="n">
-        <v>1260.588475859645</v>
+        <v>1207.259626803171</v>
       </c>
     </row>
     <row r="38">
@@ -7160,10 +7160,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7178,22 +7178,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L38" t="n">
-        <v>1177.320806523639</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M38" t="n">
-        <v>2334.36864173419</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N38" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>4284.732138705584</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
         <v>5113.04201353898</v>
@@ -7205,7 +7205,7 @@
         <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
         <v>4187.483659846699</v>
@@ -7217,7 +7217,7 @@
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="39">
@@ -7248,25 +7248,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
         <v>1107.588885023173</v>
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1004.611946844418</v>
+        <v>1011.560997133398</v>
       </c>
       <c r="C40" t="n">
-        <v>832.0502353276424</v>
+        <v>838.9992856166232</v>
       </c>
       <c r="D40" t="n">
-        <v>666.172242529165</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="E40" t="n">
-        <v>496.4142387799021</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F40" t="n">
         <v>496.4142387799021</v>
@@ -7363,19 +7363,19 @@
         <v>2292.381813755403</v>
       </c>
       <c r="U40" t="n">
-        <v>2228.223903459162</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V40" t="n">
-        <v>1941.268395329592</v>
+        <v>1948.217445618573</v>
       </c>
       <c r="W40" t="n">
-        <v>1669.241990915884</v>
+        <v>1676.191041204865</v>
       </c>
       <c r="X40" t="n">
-        <v>1423.850236249296</v>
+        <v>1430.799286538277</v>
       </c>
       <c r="Y40" t="n">
-        <v>1196.430565563405</v>
+        <v>1203.379615852385</v>
       </c>
     </row>
     <row r="41">
@@ -7412,46 +7412,46 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K41" t="n">
-        <v>475.2748675296854</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L41" t="n">
-        <v>475.2748675296854</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M41" t="n">
-        <v>1632.322702740236</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N41" t="n">
-        <v>2758.053686176683</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O41" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P41" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R41" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
         <v>2955.199618136696</v>
@@ -7485,25 +7485,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
         <v>1107.588885023173</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1057.634124109937</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C43" t="n">
-        <v>885.0724125931619</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D43" t="n">
-        <v>719.1944197946846</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E43" t="n">
-        <v>549.4364160454219</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F43" t="n">
-        <v>372.7293620071781</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G43" t="n">
-        <v>207.1380870330057</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
         <v>102.2608402707796</v>
@@ -7594,25 +7594,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T43" t="n">
-        <v>2559.679081471576</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U43" t="n">
-        <v>2281.246080724681</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V43" t="n">
-        <v>1994.290572595112</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W43" t="n">
-        <v>1722.264168181403</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X43" t="n">
-        <v>1476.872413514816</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y43" t="n">
-        <v>1249.452742828924</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="44">
@@ -7634,10 +7634,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H44" t="n">
         <v>102.6776296436396</v>
@@ -7652,22 +7652,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L44" t="n">
-        <v>475.2748675296854</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M44" t="n">
-        <v>1632.322702740236</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N44" t="n">
-        <v>2758.053686176683</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O44" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P44" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
         <v>5113.04201353898</v>
@@ -7685,13 +7685,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="45">
@@ -7722,25 +7722,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
         <v>1107.588885023173</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C46" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D46" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E46" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F46" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>330.8229638057297</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
         <v>102.2608402707796</v>
@@ -7813,43 +7813,43 @@
         <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1341.292728955483</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1783.551532113127</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2203.220781338909</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2550.727675309251</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2718.920450173583</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2718.920450173583</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2559.67908147158</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T46" t="n">
-        <v>2559.67908147158</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U46" t="n">
-        <v>2281.246080724685</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V46" t="n">
-        <v>1994.290572595115</v>
+        <v>1889.413325832885</v>
       </c>
       <c r="W46" t="n">
-        <v>1722.264168181407</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X46" t="n">
-        <v>1476.872413514819</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y46" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
   </sheetData>
@@ -7988,16 +7988,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>236.2898988798406</v>
+        <v>479.9987875054329</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773351</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773352</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8067,16 +8067,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>401.6418166099312</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773351</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,25 +8134,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>130.0063230223085</v>
+        <v>379.7979693824722</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -8222,19 +8222,19 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>424.2958575201043</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8304,16 +8304,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,19 +8371,19 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>203.2851159259061</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
@@ -8392,7 +8392,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N8" t="n">
-        <v>270.2148169866484</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>459.6491932314092</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
-        <v>459.6491932314092</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314093</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8526,7 +8526,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -8541,16 +8541,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>182.7362419062463</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>459.6491932314092</v>
+        <v>321.6407242930886</v>
       </c>
       <c r="P9" t="n">
-        <v>459.6491932314092</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314093</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8611,13 +8611,13 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>341.0277081659942</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
@@ -8690,7 +8690,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>103.3290013791403</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8711,7 +8711,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>103.3290013791402</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -8775,13 +8775,13 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>161.152732437109</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>828.0031984638366</v>
@@ -8945,10 +8945,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>484.4852854251385</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>103.3290013791402</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9000,10 +9000,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>161.152732437109</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9018,7 +9018,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>828.0031984638366</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>1101.201496790751</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
@@ -9185,7 +9185,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>103.3290013791402</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9255,7 +9255,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>187.4796750234298</v>
+        <v>161.152732437109</v>
       </c>
       <c r="P18" t="n">
         <v>828.0031984638366</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1101.201496790751</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
         <v>1137.102003471159</v>
@@ -9422,7 +9422,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697543</v>
+        <v>103.3290013791402</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9474,13 +9474,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9492,10 +9492,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9711,13 +9711,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9729,10 +9729,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -10115,7 +10115,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>928.8008214318188</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
@@ -10130,10 +10130,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,13 +10185,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10203,10 +10203,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -10346,13 +10346,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
@@ -10422,13 +10422,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10440,10 +10440,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -10589,7 +10589,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>928.8008214318188</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
@@ -10601,7 +10601,7 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>679.5583048465023</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10659,13 +10659,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10677,10 +10677,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10826,7 +10826,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
@@ -10835,16 +10835,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
-        <v>832.9621348837854</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,13 +10896,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10914,10 +10914,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11060,10 +11060,10 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>376.7818457160665</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M41" t="n">
         <v>1168.735187081365</v>
@@ -11081,7 +11081,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,13 +11133,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11151,10 +11151,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11300,7 +11300,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>376.7818457160665</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M44" t="n">
         <v>1168.735187081365</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,13 +11370,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11388,10 +11388,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>268.0111327346219</v>
+        <v>267.5985112554905</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>109.3985407791392</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>63.14631452530482</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23549,7 +23549,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>184.7831561774885</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>184.7831561774898</v>
       </c>
     </row>
     <row r="15">
@@ -23662,13 +23662,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>143.6516710866794</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>111.4236523045831</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23704,10 +23704,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23738,7 +23738,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>267.5985112554902</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23747,10 +23747,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>268.0111327346219</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>185.1957776566198</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24017,16 +24017,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>50.1445778789294</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>139.592177662726</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>5.132153028922289</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24376,13 +24376,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>223.1369608195774</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,13 +24649,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>56.52943299419027</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24850,10 +24850,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>15.2130202626621</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>139.5921776627254</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>90.92021546249566</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25315,7 +25315,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25324,13 +25324,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>23.65030257151173</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,10 +25366,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>222.8531101735159</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25555,10 +25555,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25603,10 +25603,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>212.1323395461466</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>219.0118993322379</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25685,7 +25685,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>122.4480280049968</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,10 +25834,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="T43" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,10 +26071,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T46" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>122.4480280049934</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>530800.0928702602</v>
+        <v>530800.0928702601</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>530800.0928702604</v>
+        <v>530800.0928702602</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>553200.46334422</v>
+        <v>553200.4633442198</v>
       </c>
     </row>
     <row r="11">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>553200.4633442198</v>
+        <v>553200.46334422</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>553200.46334422</v>
+        <v>553200.4633442198</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>375303.1239232861</v>
+        <v>375303.123923286</v>
       </c>
       <c r="C2" t="n">
         <v>375303.123923286</v>
@@ -26323,13 +26323,13 @@
         <v>353866.7285801734</v>
       </c>
       <c r="F2" t="n">
+        <v>353866.7285801733</v>
+      </c>
+      <c r="G2" t="n">
+        <v>353866.7285801736</v>
+      </c>
+      <c r="H2" t="n">
         <v>353866.7285801735</v>
-      </c>
-      <c r="G2" t="n">
-        <v>353866.7285801735</v>
-      </c>
-      <c r="H2" t="n">
-        <v>353866.7285801736</v>
       </c>
       <c r="I2" t="n">
         <v>368800.3088961467</v>
@@ -26353,7 +26353,7 @@
         <v>368800.3088961467</v>
       </c>
       <c r="P2" t="n">
-        <v>368800.3088961468</v>
+        <v>368800.3088961467</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>205712.2565039032</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>17340.54437390642</v>
       </c>
       <c r="D3" t="n">
-        <v>10981.80667200262</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>223799.2937520274</v>
+        <v>161735.0752101144</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>18364.71563283952</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>160607.8294856134</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>13814.00856784496</v>
       </c>
       <c r="L3" t="n">
-        <v>8947.611088509851</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>186790.9866104677</v>
+        <v>134989.9446130034</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.574418839027077e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>169168.0932697598</v>
+        <v>125788.3839715077</v>
       </c>
       <c r="C4" t="n">
-        <v>169168.0932697598</v>
+        <v>113504.4062182506</v>
       </c>
       <c r="D4" t="n">
-        <v>161077.0551897631</v>
+        <v>113504.4062182506</v>
       </c>
       <c r="E4" t="n">
-        <v>773.6821211687732</v>
+        <v>773.6821211687733</v>
       </c>
       <c r="F4" t="n">
         <v>773.6821211687733</v>
       </c>
       <c r="G4" t="n">
-        <v>773.6821211687732</v>
+        <v>773.6821211687733</v>
       </c>
       <c r="H4" t="n">
-        <v>773.6821211687732</v>
+        <v>773.6821211687734</v>
       </c>
       <c r="I4" t="n">
         <v>806.3323907826023</v>
@@ -26445,19 +26445,19 @@
         <v>806.3323907826023</v>
       </c>
       <c r="L4" t="n">
+        <v>806.3323907826021</v>
+      </c>
+      <c r="M4" t="n">
         <v>806.3323907826023</v>
-      </c>
-      <c r="M4" t="n">
-        <v>806.3323907826021</v>
       </c>
       <c r="N4" t="n">
         <v>806.3323907826023</v>
       </c>
       <c r="O4" t="n">
-        <v>806.3323907826257</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="P4" t="n">
-        <v>806.3323907826539</v>
+        <v>806.3323907826023</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>70949.13625814197</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>61574.27094846968</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
         <v>73519.34227764752</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4518.941856594058</v>
+        <v>-27146.65281026684</v>
       </c>
       <c r="C6" t="n">
-        <v>146710.2425163039</v>
+        <v>170245.6487693713</v>
       </c>
       <c r="D6" t="n">
-        <v>141669.9911130507</v>
+        <v>187586.1931432777</v>
       </c>
       <c r="E6" t="n">
-        <v>55774.41042932968</v>
+        <v>117762.0704164459</v>
       </c>
       <c r="F6" t="n">
-        <v>279573.7041813572</v>
+        <v>279497.1456265602</v>
       </c>
       <c r="G6" t="n">
-        <v>279573.7041813572</v>
+        <v>279497.1456265604</v>
       </c>
       <c r="H6" t="n">
-        <v>279573.7041813573</v>
+        <v>279497.1456265604</v>
       </c>
       <c r="I6" t="n">
-        <v>271911.022266732</v>
+        <v>271887.7979273493</v>
       </c>
       <c r="J6" t="n">
-        <v>179261.2725545814</v>
+        <v>129644.6840745755</v>
       </c>
       <c r="K6" t="n">
-        <v>290275.7378995716</v>
+        <v>276438.504992344</v>
       </c>
       <c r="L6" t="n">
-        <v>281328.1268110617</v>
+        <v>290252.5135601889</v>
       </c>
       <c r="M6" t="n">
-        <v>103484.751289104</v>
+        <v>155262.5689471856</v>
       </c>
       <c r="N6" t="n">
-        <v>290275.7378995716</v>
+        <v>290252.5135601889</v>
       </c>
       <c r="O6" t="n">
-        <v>290275.7378995716</v>
+        <v>290252.5135601889</v>
       </c>
       <c r="P6" t="n">
-        <v>290275.7378995717</v>
+        <v>290252.5135601889</v>
       </c>
     </row>
   </sheetData>
@@ -26722,10 +26722,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773351</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>459.6491932314092</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
         <v>1209.19970851394</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773351</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>53.67414973052189</v>
       </c>
       <c r="D4" t="n">
-        <v>35.35333571130483</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>749.5505152825305</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>69.06079487080569</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773351</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052189</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130483</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825302</v>
+        <v>541.6845019060825</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773351</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052189</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130483</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825305</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>64.79236478762959</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,19 +27433,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>212.9714662586728</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>108.6158329856826</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27552,7 +27552,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -27582,19 +27582,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>125.673809061288</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>3.32966510043002</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
@@ -27622,19 +27622,19 @@
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>5.14113987318342</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>180.8798691435849</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27673,16 +27673,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>23.36648398926923</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,10 +27825,10 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27856,19 +27856,19 @@
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27907,16 +27907,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>330.9903590252653</v>
       </c>
       <c r="X8" t="n">
-        <v>153.7986316347264</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28020,13 +28020,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>90.2200092229004</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>86.33758216352993</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -30508,7 +30508,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>5.142369289011372e-13</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -30885,7 +30885,7 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>3.758651504979533e-12</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -34708,16 +34708,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>236.2898988798406</v>
+        <v>479.9987875054329</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773351</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773352</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34787,16 +34787,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>401.6418166099312</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773351</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,25 +34854,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>130.0063230223085</v>
+        <v>379.7979693824722</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34942,19 +34942,19 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>424.2958575201043</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35024,16 +35024,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>203.2851159259061</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512941</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N8" t="n">
-        <v>270.2148169866484</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>459.6491932314092</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
-        <v>459.6491932314092</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314093</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35246,7 +35246,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -35261,16 +35261,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>182.7362419062463</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>459.6491932314092</v>
+        <v>321.6407242930886</v>
       </c>
       <c r="P9" t="n">
-        <v>459.6491932314092</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314093</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35331,22 +35331,22 @@
         <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>341.0277081659942</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35410,7 +35410,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>103.3290013791403</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -35431,7 +35431,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>103.3290013791402</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -35495,13 +35495,13 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>161.152732437109</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>828.0031984638366</v>
@@ -35665,10 +35665,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
-        <v>484.4852854251385</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.862691669754</v>
+        <v>103.3290013791402</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,10 +35720,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>161.152732437109</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35738,7 +35738,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>828.0031984638366</v>
@@ -35890,7 +35890,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>1101.201496790751</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
@@ -35905,7 +35905,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>103.3290013791402</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -35975,7 +35975,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>187.4796750234298</v>
+        <v>161.152732437109</v>
       </c>
       <c r="P18" t="n">
         <v>828.0031984638366</v>
@@ -36127,7 +36127,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1101.201496790751</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
         <v>1137.102003471159</v>
@@ -36142,7 +36142,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>170.862691669754</v>
+        <v>103.3290013791402</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,13 +36194,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36212,10 +36212,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36431,13 +36431,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36449,10 +36449,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -36765,7 +36765,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
@@ -36835,7 +36835,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>928.8008214318188</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
@@ -36850,10 +36850,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36923,10 +36923,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -36993,7 +36993,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080423</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M31" t="n">
         <v>464.1251183645587</v>
@@ -37066,13 +37066,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37160,10 +37160,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -37239,13 +37239,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,7 +37309,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>928.8008214318188</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
@@ -37321,7 +37321,7 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>679.5583048465023</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37397,10 +37397,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -37546,7 +37546,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
@@ -37555,16 +37555,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
-        <v>832.9621348837854</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37634,10 +37634,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -37780,10 +37780,10 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>376.7818457160665</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M41" t="n">
         <v>1168.735187081365</v>
@@ -37801,7 +37801,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37871,10 +37871,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -38020,7 +38020,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>376.7818457160665</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M44" t="n">
         <v>1168.735187081365</v>
@@ -38038,7 +38038,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38108,10 +38108,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -38181,13 +38181,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645625</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>
